--- a/testData/WebForm/TC014_WF_RRN_OneN_TwoYN_Test.xlsx
+++ b/testData/WebForm/TC014_WF_RRN_OneN_TwoYN_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="88">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -276,22 +276,10 @@
     <t>9840004889</t>
   </si>
   <si>
-    <t>9840010842</t>
-  </si>
-  <si>
-    <t>9840041512</t>
-  </si>
-  <si>
-    <t>9840054492</t>
-  </si>
-  <si>
     <t>9840074542</t>
   </si>
   <si>
     <t>9840008844</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>9840096011</t>
@@ -301,7 +289,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -673,93 +660,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AN3" sqref="AN3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.36328125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="40" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="42" max="43" customWidth="true" width="15.26953125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="45" max="46" customWidth="true" width="11.453125"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="48" max="54" customWidth="true" width="11.453125"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.54296875" customWidth="1"/>
+    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.54296875" customWidth="1"/>
+    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.54296875" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.6328125" customWidth="1"/>
+    <col min="34" max="35" width="15.26953125" customWidth="1"/>
+    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.81640625" customWidth="1"/>
+    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="15.26953125" customWidth="1"/>
+    <col min="44" max="44" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="11.453125" customWidth="1"/>
+    <col min="47" max="47" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="48" max="54" width="11.453125" customWidth="1"/>
+    <col min="55" max="55" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -768,139 +755,139 @@
       <c r="N1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="R1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" t="s" s="0">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s" s="0">
+      <c r="T1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s" s="0">
+      <c r="U1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" t="s" s="0">
+      <c r="V1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" t="s" s="0">
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" t="s" s="0">
+      <c r="X1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" t="s" s="0">
+      <c r="Y1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" t="s" s="0">
+      <c r="Z1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AA1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AB1" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" t="s" s="0">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s" s="0">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s" s="0">
+      <c r="AE1" t="s">
         <v>49</v>
       </c>
-      <c r="AF1" t="s" s="0">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" t="s" s="0">
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" t="s" s="0">
+      <c r="AH1" t="s">
         <v>56</v>
       </c>
-      <c r="AI1" t="s" s="0">
+      <c r="AI1" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s" s="0">
+      <c r="AJ1" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" t="s" s="0">
+      <c r="AK1" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" t="s" s="0">
+      <c r="AL1" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" t="s" s="0">
+      <c r="AM1" t="s">
         <v>68</v>
       </c>
-      <c r="AN1" t="s" s="0">
+      <c r="AN1" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" t="s" s="0">
+      <c r="AO1" t="s">
         <v>51</v>
       </c>
-      <c r="AP1" t="s" s="0">
+      <c r="AP1" t="s">
         <v>59</v>
       </c>
-      <c r="AQ1" t="s" s="0">
+      <c r="AQ1" t="s">
         <v>26</v>
       </c>
-      <c r="AR1" t="s" s="0">
+      <c r="AR1" t="s">
         <v>27</v>
       </c>
-      <c r="AS1" t="s" s="0">
+      <c r="AS1" t="s">
         <v>63</v>
       </c>
-      <c r="AT1" t="s" s="0">
+      <c r="AT1" t="s">
         <v>26</v>
       </c>
-      <c r="AU1" t="s" s="0">
+      <c r="AU1" t="s">
         <v>27</v>
       </c>
-      <c r="AV1" t="s" s="0">
+      <c r="AV1" t="s">
         <v>64</v>
       </c>
-      <c r="AW1" t="s" s="0">
+      <c r="AW1" t="s">
         <v>26</v>
       </c>
-      <c r="AX1" t="s" s="0">
+      <c r="AX1" t="s">
         <v>27</v>
       </c>
-      <c r="AY1" t="s" s="0">
+      <c r="AY1" t="s">
         <v>65</v>
       </c>
-      <c r="AZ1" t="s" s="0">
+      <c r="AZ1" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" t="s" s="0">
+      <c r="BA1" t="s">
         <v>27</v>
       </c>
-      <c r="BB1" t="s" s="0">
+      <c r="BB1" t="s">
         <v>66</v>
       </c>
-      <c r="BC1" t="s" s="0">
+      <c r="BC1" t="s">
         <v>26</v>
       </c>
-      <c r="BD1" t="s" s="0">
+      <c r="BD1" t="s">
         <v>27</v>
       </c>
-      <c r="BE1" t="s" s="0">
+      <c r="BE1" t="s">
         <v>67</v>
       </c>
-      <c r="BF1" t="s" s="0">
+      <c r="BF1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s" s="0">
+      <c r="BG1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -914,31 +901,31 @@
       <c r="C2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s" s="0">
-        <v>88</v>
+      <c r="F2" t="s">
+        <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>41</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -947,43 +934,43 @@
       <c r="N2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O2" t="s" s="0">
+      <c r="O2" t="s">
         <v>17</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="R2" t="s" s="0">
+      <c r="Q2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s">
         <v>50</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="T2" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="U2" t="s" s="0">
+      <c r="T2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" t="s">
         <v>50</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="W2" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="X2" t="s" s="0">
+      <c r="W2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" t="s">
         <v>50</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="Z2" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="AA2" t="s" s="0">
+      <c r="Z2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" t="s">
         <v>50</v>
       </c>
       <c r="AB2" s="6" t="s">
@@ -1013,19 +1000,19 @@
       <c r="AJ2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AK2" t="s" s="0">
+      <c r="AK2" t="s">
         <v>29</v>
       </c>
-      <c r="AL2" t="s" s="0">
+      <c r="AL2" t="s">
         <v>83</v>
       </c>
-      <c r="AM2" t="s" s="0">
+      <c r="AM2" t="s">
         <v>60</v>
       </c>
-      <c r="AN2" t="s" s="0">
+      <c r="AN2" t="s">
         <v>60</v>
       </c>
-      <c r="AO2" t="s" s="0">
+      <c r="AO2" t="s">
         <v>60</v>
       </c>
       <c r="AP2" s="6" t="s">
@@ -1087,7 +1074,7 @@
       <c r="C3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1096,19 +1083,19 @@
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" t="s" s="0">
+      <c r="L3" t="s">
         <v>40</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -1117,8 +1104,8 @@
       <c r="N3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O3" t="s" s="0">
-        <v>50</v>
+      <c r="O3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.35">
@@ -1131,7 +1118,7 @@
       <c r="C4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1140,19 +1127,19 @@
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s" s="0">
+      <c r="J4" t="s">
         <v>58</v>
       </c>
-      <c r="K4" t="s" s="0">
+      <c r="K4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" t="s" s="0">
+      <c r="L4" t="s">
         <v>39</v>
       </c>
       <c r="M4" s="4" t="s">
@@ -1161,8 +1148,8 @@
       <c r="N4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="O4" t="s" s="0">
-        <v>50</v>
+      <c r="O4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.35">
@@ -1175,31 +1162,31 @@
       <c r="C5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s" s="0">
-        <v>89</v>
+      <c r="F5" t="s">
+        <v>86</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="s" s="0">
+      <c r="J5" t="s">
         <v>58</v>
       </c>
-      <c r="K5" t="s" s="0">
+      <c r="K5" t="s">
         <v>13</v>
       </c>
-      <c r="L5" t="s" s="0">
+      <c r="L5" t="s">
         <v>42</v>
       </c>
       <c r="M5" s="4" t="s">
@@ -1208,7 +1195,7 @@
       <c r="N5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O5" t="s" s="0">
+      <c r="O5" t="s">
         <v>17</v>
       </c>
       <c r="AE5" s="4"/>
@@ -1223,7 +1210,7 @@
       <c r="C6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1232,19 +1219,19 @@
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" t="s" s="0">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" t="s" s="0">
+      <c r="J6" t="s">
         <v>58</v>
       </c>
-      <c r="K6" t="s" s="0">
+      <c r="K6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" t="s" s="0">
+      <c r="L6" t="s">
         <v>43</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1253,8 +1240,8 @@
       <c r="N6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O6" t="s" s="0">
-        <v>50</v>
+      <c r="O6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.35">
@@ -1267,14 +1254,14 @@
       <c r="C7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s" s="0">
-        <v>91</v>
+      <c r="F7" t="s">
+        <v>87</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1282,16 +1269,16 @@
       <c r="H7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I7" t="s" s="0">
+      <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s" s="0">
+      <c r="J7" t="s">
         <v>62</v>
       </c>
-      <c r="K7" t="s" s="0">
+      <c r="K7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" t="s" s="0">
+      <c r="L7" t="s">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1300,7 +1287,7 @@
       <c r="N7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O7" t="s" s="0">
+      <c r="O7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1314,7 +1301,7 @@
       <c r="C8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1323,19 +1310,19 @@
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="H8" t="s">
         <v>36</v>
       </c>
-      <c r="I8" t="s" s="0">
+      <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" t="s" s="0">
+      <c r="J8" t="s">
         <v>58</v>
       </c>
-      <c r="K8" t="s" s="0">
+      <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="L8" t="s" s="0">
+      <c r="L8" t="s">
         <v>40</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1344,8 +1331,8 @@
       <c r="N8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O8" t="s" s="0">
-        <v>50</v>
+      <c r="O8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.35">
@@ -1358,7 +1345,7 @@
       <c r="C9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1367,19 +1354,19 @@
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="H9" t="s">
         <v>37</v>
       </c>
-      <c r="I9" t="s" s="0">
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="J9" t="s">
         <v>58</v>
       </c>
-      <c r="K9" t="s" s="0">
+      <c r="K9" t="s">
         <v>13</v>
       </c>
-      <c r="L9" t="s" s="0">
+      <c r="L9" t="s">
         <v>41</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1388,8 +1375,8 @@
       <c r="N9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="O9" t="s" s="0">
-        <v>50</v>
+      <c r="O9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.35">
@@ -1402,31 +1389,31 @@
       <c r="C10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s" s="0">
+      <c r="F10" t="s">
         <v>84</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="H10" t="s">
         <v>38</v>
       </c>
-      <c r="I10" t="s" s="0">
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" t="s" s="0">
+      <c r="J10" t="s">
         <v>58</v>
       </c>
-      <c r="K10" t="s" s="0">
+      <c r="K10" t="s">
         <v>13</v>
       </c>
-      <c r="L10" t="s" s="0">
+      <c r="L10" t="s">
         <v>39</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1435,8 +1422,8 @@
       <c r="N10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O10" t="s" s="0">
-        <v>50</v>
+      <c r="O10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC014_WF_RRN_OneN_TwoYN_Test.xlsx
+++ b/testData/WebForm/TC014_WF_RRN_OneN_TwoYN_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="98">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -283,12 +283,43 @@
   </si>
   <si>
     <t>9840096011</t>
+  </si>
+  <si>
+    <t>9840006389</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9840024574</t>
+  </si>
+  <si>
+    <t>9840070213</t>
+  </si>
+  <si>
+    <t>9840080807</t>
+  </si>
+  <si>
+    <t>9840092307</t>
+  </si>
+  <si>
+    <t>9840085281</t>
+  </si>
+  <si>
+    <t>9840054735</t>
+  </si>
+  <si>
+    <t>9840059770</t>
+  </si>
+  <si>
+    <t>9840070370</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -666,87 +697,87 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.54296875" customWidth="1"/>
-    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" customWidth="1"/>
-    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.54296875" customWidth="1"/>
-    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.6328125" customWidth="1"/>
-    <col min="34" max="35" width="15.26953125" customWidth="1"/>
-    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.81640625" customWidth="1"/>
-    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="15.26953125" customWidth="1"/>
-    <col min="44" max="44" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="11.453125" customWidth="1"/>
-    <col min="47" max="47" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="48" max="54" width="11.453125" customWidth="1"/>
-    <col min="55" max="55" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.36328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="19" max="19" customWidth="true" width="10.54296875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="22" max="22" customWidth="true" width="10.54296875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="25" max="25" customWidth="true" width="10.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="32" max="33" customWidth="true" width="9.6328125"/>
+    <col min="34" max="35" customWidth="true" width="15.26953125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="37" max="37" customWidth="true" width="17.81640625"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
+    <col min="39" max="40" bestFit="true" customWidth="true" width="13.90625"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="15.26953125"/>
+    <col min="42" max="43" customWidth="true" width="15.26953125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="45" max="46" customWidth="true" width="11.453125"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="48" max="54" customWidth="true" width="11.453125"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7265625"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="10.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -755,139 +786,139 @@
       <c r="N1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" t="s" s="0">
         <v>19</v>
       </c>
     </row>
@@ -901,31 +932,31 @@
       <c r="C2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>85</v>
+      <c r="F2" t="s" s="0">
+        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -934,43 +965,43 @@
       <c r="N2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>17</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="Q2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s" s="0">
         <v>50</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="T2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="T2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="U2" t="s" s="0">
         <v>50</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="W2" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="W2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="X2" t="s" s="0">
         <v>50</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="Z2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="Z2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="AA2" t="s" s="0">
         <v>50</v>
       </c>
       <c r="AB2" s="6" t="s">
@@ -1000,19 +1031,19 @@
       <c r="AJ2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AL2" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AM2" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="AN2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO2" t="s">
+      <c r="AN2" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="AO2" t="s" s="0">
         <v>60</v>
       </c>
       <c r="AP2" s="6" t="s">
@@ -1074,28 +1105,31 @@
       <c r="C3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F3" t="s" s="0">
+        <v>90</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -1104,7 +1138,7 @@
       <c r="N3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1118,28 +1152,31 @@
       <c r="C4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F4" t="s" s="0">
+        <v>91</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M4" s="4" t="s">
@@ -1148,7 +1185,7 @@
       <c r="N4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1162,31 +1199,31 @@
       <c r="C5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
-        <v>86</v>
+      <c r="F5" t="s" s="0">
+        <v>92</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" t="s" s="0">
         <v>42</v>
       </c>
       <c r="M5" s="4" t="s">
@@ -1195,7 +1232,7 @@
       <c r="N5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" t="s" s="0">
         <v>17</v>
       </c>
       <c r="AE5" s="4"/>
@@ -1210,28 +1247,31 @@
       <c r="C6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F6" t="s" s="0">
+        <v>93</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="s" s="0">
         <v>43</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1240,7 +1280,7 @@
       <c r="N6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1254,14 +1294,14 @@
       <c r="C7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>87</v>
+      <c r="F7" t="s" s="0">
+        <v>94</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1269,16 +1309,16 @@
       <c r="H7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1287,7 +1327,7 @@
       <c r="N7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1301,28 +1341,31 @@
       <c r="C8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F8" t="s" s="0">
+        <v>95</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1331,7 +1374,7 @@
       <c r="N8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1345,28 +1388,31 @@
       <c r="C9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F9" t="s" s="0">
+        <v>96</v>
+      </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1375,7 +1421,7 @@
       <c r="N9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1389,31 +1435,31 @@
       <c r="C10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
-        <v>84</v>
+      <c r="F10" t="s" s="0">
+        <v>97</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1422,7 +1468,7 @@
       <c r="N10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" t="s" s="0">
         <v>17</v>
       </c>
     </row>

--- a/testData/WebForm/TC014_WF_RRN_OneN_TwoYN_Test.xlsx
+++ b/testData/WebForm/TC014_WF_RRN_OneN_TwoYN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="107">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -313,6 +313,33 @@
   </si>
   <si>
     <t>9840070370</t>
+  </si>
+  <si>
+    <t>9840069159</t>
+  </si>
+  <si>
+    <t>9840094156</t>
+  </si>
+  <si>
+    <t>9840014056</t>
+  </si>
+  <si>
+    <t>9840048221</t>
+  </si>
+  <si>
+    <t>9840003778</t>
+  </si>
+  <si>
+    <t>9840042769</t>
+  </si>
+  <si>
+    <t>9840094213</t>
+  </si>
+  <si>
+    <t>9840096556</t>
+  </si>
+  <si>
+    <t>9840077124</t>
   </si>
 </sst>
 </file>
@@ -939,7 +966,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1041,7 +1068,7 @@
         <v>60</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AO2" t="s" s="0">
         <v>60</v>
@@ -1112,7 +1139,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1159,7 +1186,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1206,7 +1233,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1254,7 +1281,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1301,7 +1328,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1348,7 +1375,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1395,7 +1422,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1442,7 +1469,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>

--- a/testData/WebForm/TC014_WF_RRN_OneN_TwoYN_Test.xlsx
+++ b/testData/WebForm/TC014_WF_RRN_OneN_TwoYN_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="100">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -273,73 +273,52 @@
     <t>WF_RRN_OneN_TwoYN</t>
   </si>
   <si>
-    <t>9840004889</t>
-  </si>
-  <si>
-    <t>9840074542</t>
-  </si>
-  <si>
-    <t>9840008844</t>
-  </si>
-  <si>
-    <t>9840096011</t>
-  </si>
-  <si>
-    <t>9840006389</t>
+    <t>9840069159</t>
+  </si>
+  <si>
+    <t>9840094156</t>
+  </si>
+  <si>
+    <t>9840014056</t>
+  </si>
+  <si>
+    <t>9840048221</t>
+  </si>
+  <si>
+    <t>9840003778</t>
+  </si>
+  <si>
+    <t>9840042769</t>
+  </si>
+  <si>
+    <t>9840094213</t>
+  </si>
+  <si>
+    <t>9840096556</t>
+  </si>
+  <si>
+    <t>9840077124</t>
+  </si>
+  <si>
+    <t>9840052778</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>9840024574</t>
-  </si>
-  <si>
-    <t>9840070213</t>
-  </si>
-  <si>
-    <t>9840080807</t>
-  </si>
-  <si>
-    <t>9840092307</t>
-  </si>
-  <si>
-    <t>9840085281</t>
-  </si>
-  <si>
-    <t>9840054735</t>
-  </si>
-  <si>
-    <t>9840059770</t>
-  </si>
-  <si>
-    <t>9840070370</t>
-  </si>
-  <si>
-    <t>9840069159</t>
-  </si>
-  <si>
-    <t>9840094156</t>
-  </si>
-  <si>
-    <t>9840014056</t>
-  </si>
-  <si>
-    <t>9840048221</t>
-  </si>
-  <si>
-    <t>9840003778</t>
-  </si>
-  <si>
-    <t>9840042769</t>
-  </si>
-  <si>
-    <t>9840094213</t>
-  </si>
-  <si>
-    <t>9840096556</t>
-  </si>
-  <si>
-    <t>9840077124</t>
+    <t>9840062294</t>
+  </si>
+  <si>
+    <t>9840017996</t>
+  </si>
+  <si>
+    <t>9840036917</t>
+  </si>
+  <si>
+    <t>9840084278</t>
+  </si>
+  <si>
+    <t>9840037362</t>
   </si>
 </sst>
 </file>
@@ -718,59 +697,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O10"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.36328125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.5703125"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="40" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="42" max="43" customWidth="true" width="15.26953125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="45" max="46" customWidth="true" width="11.453125"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="48" max="54" customWidth="true" width="11.453125"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="19" max="19" customWidth="true" width="10.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="22" max="22" customWidth="true" width="10.5703125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="25" max="25" customWidth="true" width="10.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="32" max="33" customWidth="true" width="9.5703125"/>
+    <col min="34" max="35" customWidth="true" width="15.28515625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="37" max="37" customWidth="true" width="17.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.42578125"/>
+    <col min="39" max="40" bestFit="true" customWidth="true" width="13.85546875"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="15.28515625"/>
+    <col min="42" max="43" customWidth="true" width="15.28515625"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="45" max="46" customWidth="true" width="11.42578125"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="48" max="54" customWidth="true" width="11.42578125"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7109375"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -949,7 +928,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -966,7 +945,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1122,7 +1101,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1139,7 +1118,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1166,10 +1145,10 @@
         <v>52</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1186,7 +1165,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1213,10 +1192,10 @@
         <v>53</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,7 +1212,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1264,7 +1243,7 @@
       </c>
       <c r="AE5" s="4"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1281,7 +1260,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1308,10 +1287,10 @@
         <v>55</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1328,7 +1307,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1355,10 +1334,10 @@
         <v>47</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1375,7 +1354,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1402,10 +1381,10 @@
         <v>52</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1422,7 +1401,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1452,7 +1431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1469,7 +1448,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1496,7 +1475,7 @@
         <v>54</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
